--- a/docs/times3.xlsx
+++ b/docs/times3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="75" windowWidth="17235" windowHeight="6225"/>
+    <workbookView xWindow="3030" yWindow="75" windowWidth="17235" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -278,11 +278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="439285768"/>
-        <c:axId val="439283416"/>
+        <c:axId val="266646744"/>
+        <c:axId val="266651448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="439285768"/>
+        <c:axId val="266646744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -339,12 +339,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439283416"/>
+        <c:crossAx val="266651448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439283416"/>
+        <c:axId val="266651448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,7 +401,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439285768"/>
+        <c:crossAx val="266646744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -623,11 +623,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="439282240"/>
-        <c:axId val="439280672"/>
+        <c:axId val="266648704"/>
+        <c:axId val="266653408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="439282240"/>
+        <c:axId val="266648704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,12 +684,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439280672"/>
+        <c:crossAx val="266653408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439280672"/>
+        <c:axId val="266653408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,7 +746,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439282240"/>
+        <c:crossAx val="266648704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -837,7 +837,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -958,11 +957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="439283808"/>
-        <c:axId val="439278320"/>
+        <c:axId val="266650664"/>
+        <c:axId val="266651056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="439283808"/>
+        <c:axId val="266650664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,12 +1018,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439278320"/>
+        <c:crossAx val="266651056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439278320"/>
+        <c:axId val="266651056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +1080,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439283808"/>
+        <c:crossAx val="266650664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3183,7 +3182,7 @@
   <dimension ref="B2:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
